--- a/resultadoeEspecial.xlsx
+++ b/resultadoeEspecial.xlsx
@@ -451,13 +451,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0103*x + (-3.2939)
+          <t xml:space="preserve">y = 0.0102692653*x + (-3.2938664988)
 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R² = 0.8531</t>
+          <t>R² = 0.8531067303</t>
         </is>
       </c>
     </row>
@@ -467,13 +467,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 3.7214*log(x) + (-21.4879)
+          <t xml:space="preserve">y = 3.7214383699*log(x) + (-21.4878581280)
 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R² = 0.8507</t>
+          <t>R² = 0.8507221844</t>
         </is>
       </c>
     </row>
@@ -483,13 +483,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = nan*e**(nan*x)
+          <t xml:space="preserve">y = 0.1852852870*e**(0.0060698867*x)
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R² = 0.0000</t>
+          <t>R² = 0.8361704486</t>
         </is>
       </c>
     </row>
@@ -499,13 +499,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = nan*x**(nan)
+          <t xml:space="preserve">y = 0.0000037981*x**(2.2066449977)
 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R² = 0.0000</t>
+          <t>R² = 0.8391508980</t>
         </is>
       </c>
     </row>
@@ -515,13 +515,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = nan*x**(nan)
+          <t xml:space="preserve">y = 0.1852852870*x**(1.0060883458)
 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R² = 0.0000</t>
+          <t>R² = 0.8361704486</t>
         </is>
       </c>
     </row>
@@ -531,13 +531,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = (-2.4987*x**2) + (0.0059)*x + (0.0000) 
+          <t xml:space="preserve">y = (-2.4987216016*x**2) + (0.0058768250)*x + (0.0000060205) 
 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>R² = 0.8533</t>
+          <t>R² = 0.8533390709</t>
         </is>
       </c>
     </row>

--- a/resultadoeEspecial.xlsx
+++ b/resultadoeEspecial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.1852852870*e**(0.0060698867*x)
+          <t xml:space="preserve">y = 0.1852852870*e**(0.0060698867*x) - 1.2800
 </t>
         </is>
       </c>
@@ -499,7 +499,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0000037981*x**(2.2066449977)
+          <t xml:space="preserve">y = 0.0000037981*x**(2.2066449977) - 1.2800
 </t>
         </is>
       </c>
@@ -515,27 +515,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.1852852870*x**(1.0060883458)
-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>R² = 0.8361704486</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t xml:space="preserve">y = (-2.4987216016*x**2) + (0.0058768250)*x + (0.0000060205) 
 </t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>R² = 0.8533390709</t>
         </is>

--- a/resultadoeEspecial.xlsx
+++ b/resultadoeEspecial.xlsx
@@ -451,13 +451,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0102692653*x + (-3.2938664988)
+          <t xml:space="preserve">y = 0.010269*x + (-3.293866)
 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R² = 0.8531067303</t>
+          <t>R² = 0.853107</t>
         </is>
       </c>
     </row>
@@ -467,13 +467,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 3.7214383699*log(x) + (-21.4878581280)
+          <t xml:space="preserve">y = 3.721438*log(x) + (-21.487858)
 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R² = 0.8507221844</t>
+          <t>R² = 0.850722</t>
         </is>
       </c>
     </row>
@@ -483,13 +483,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.1852852870*e**(0.0060698867*x) - 1.2800
+          <t xml:space="preserve">y = 0.185285*e**(0.006070*x) - 1.2800
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R² = 0.8361704486</t>
+          <t>R² = 0.836170</t>
         </is>
       </c>
     </row>
@@ -499,13 +499,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0000037981*x**(2.2066449977) - 1.2800
+          <t xml:space="preserve">y = 0.000004*x**(2.206645) - 1.2800
 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R² = 0.8391508980</t>
+          <t>R² = 0.839151</t>
         </is>
       </c>
     </row>
@@ -515,13 +515,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = (-2.4987216016*x**2) + (0.0058768250)*x + (0.0000060205) 
+          <t xml:space="preserve">y = (-2.498722*x**2) + (0.005877)*x + (0.000006) 
 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R² = 0.8533390709</t>
+          <t>R² = 0.853339</t>
         </is>
       </c>
     </row>

--- a/resultadoeEspecial.xlsx
+++ b/resultadoeEspecial.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.010269*x + (-3.293866)
+          <t xml:space="preserve">y = 0.0102693*x + (-3.29387)
 </t>
         </is>
       </c>
@@ -467,7 +467,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 3.721438*log(x) + (-21.487858)
+          <t xml:space="preserve">y = 3.72144*log(x) + (-21.4879)
 </t>
         </is>
       </c>
@@ -483,13 +483,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.185285*e**(0.006070*x) - 1.2800
+          <t xml:space="preserve">y = 0.185285*e**(0.00606989*x) - 1.2800
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R² = 0.836170</t>
+          <t>R² = 0.83617</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.000004*x**(2.206645) - 1.2800
+          <t xml:space="preserve">y = 3.79807e-06*x**(2.20664) - 1.2800
 </t>
         </is>
       </c>
@@ -515,7 +515,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = (-2.498722*x**2) + (0.005877)*x + (0.000006) 
+          <t xml:space="preserve">y = (-2.49872*x**2) + (0.00587682)*x + (6.02045e-06) 
 </t>
         </is>
       </c>

--- a/resultadoeEspecial.xlsx
+++ b/resultadoeEspecial.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 3.72144*log(x) + (-21.4879)
+          <t xml:space="preserve">y = 3.72144*ln(x) + (-21.4879)
 </t>
         </is>
       </c>
